--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna2-Epha3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H2">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J2">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>58.434756626801</v>
+        <v>1.106217</v>
       </c>
       <c r="N2">
-        <v>58.434756626801</v>
+        <v>3.318651</v>
       </c>
       <c r="O2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P2">
-        <v>0.9922242702010956</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q2">
-        <v>159.9062374766594</v>
+        <v>3.058429306527</v>
       </c>
       <c r="R2">
-        <v>159.9062374766594</v>
+        <v>27.525863758743</v>
       </c>
       <c r="S2">
-        <v>0.2870313071413506</v>
+        <v>0.004753400679827733</v>
       </c>
       <c r="T2">
-        <v>0.2870313071413506</v>
+        <v>0.004753400679827733</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.73649188783168</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H3">
-        <v>2.73649188783168</v>
+        <v>8.294293</v>
       </c>
       <c r="I3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J3">
-        <v>0.2892806755101621</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.457933646697285</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N3">
-        <v>0.457933646697285</v>
+        <v>177.734444</v>
       </c>
       <c r="O3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P3">
-        <v>0.00777572979890435</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q3">
-        <v>1.253131709352299</v>
+        <v>163.7979505253435</v>
       </c>
       <c r="R3">
-        <v>1.253131709352299</v>
+        <v>1474.181554728092</v>
       </c>
       <c r="S3">
-        <v>0.002249368368811548</v>
+        <v>0.2545742311976776</v>
       </c>
       <c r="T3">
-        <v>0.002249368368811548</v>
+        <v>0.2545742311976776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.89473477325209</v>
+        <v>2.764764333333333</v>
       </c>
       <c r="H4">
-        <v>5.89473477325209</v>
+        <v>8.294293</v>
       </c>
       <c r="I4">
-        <v>0.6231455918953174</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="J4">
-        <v>0.6231455918953174</v>
+        <v>0.2621645059246011</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.434756626801</v>
+        <v>0.6602006666666667</v>
       </c>
       <c r="N4">
-        <v>58.434756626801</v>
+        <v>1.980602</v>
       </c>
       <c r="O4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="P4">
-        <v>0.9922242702010956</v>
+        <v>0.01082096921202439</v>
       </c>
       <c r="Q4">
-        <v>344.4573918545268</v>
+        <v>1.825299256042889</v>
       </c>
       <c r="R4">
-        <v>344.4573918545268</v>
+        <v>16.427693304386</v>
       </c>
       <c r="S4">
-        <v>0.618300180147361</v>
+        <v>0.002836874047095692</v>
       </c>
       <c r="T4">
-        <v>0.618300180147361</v>
+        <v>0.002836874047095692</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.89473477325209</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H5">
-        <v>5.89473477325209</v>
+        <v>17.776364</v>
       </c>
       <c r="I5">
-        <v>0.6231455918953174</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J5">
-        <v>0.6231455918953174</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.457933646697285</v>
+        <v>1.106217</v>
       </c>
       <c r="N5">
-        <v>0.457933646697285</v>
+        <v>3.318651</v>
       </c>
       <c r="O5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="P5">
-        <v>0.00777572979890435</v>
+        <v>0.01813136626967656</v>
       </c>
       <c r="Q5">
-        <v>2.699397391028623</v>
+        <v>6.554838684996001</v>
       </c>
       <c r="R5">
-        <v>2.699397391028623</v>
+        <v>58.993548164964</v>
       </c>
       <c r="S5">
-        <v>0.004845411747956308</v>
+        <v>0.01018750853417708</v>
       </c>
       <c r="T5">
-        <v>0.004845411747956308</v>
+        <v>0.01018750853417708</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.82841623765369</v>
+        <v>5.925454666666667</v>
       </c>
       <c r="H6">
-        <v>0.82841623765369</v>
+        <v>17.776364</v>
       </c>
       <c r="I6">
-        <v>0.08757373259452061</v>
+        <v>0.5618720830329801</v>
       </c>
       <c r="J6">
-        <v>0.08757373259452061</v>
+        <v>0.56187208303298</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.434756626801</v>
+        <v>59.24481466666666</v>
       </c>
       <c r="N6">
-        <v>58.434756626801</v>
+        <v>177.734444</v>
       </c>
       <c r="O6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="P6">
-        <v>0.9922242702010956</v>
+        <v>0.971047664518299</v>
       </c>
       <c r="Q6">
-        <v>48.40830123298351</v>
+        <v>351.0524635424018</v>
       </c>
       <c r="R6">
-        <v>48.40830123298351</v>
+        <v>3159.472171881616</v>
       </c>
       <c r="S6">
-        <v>0.08689278291238411</v>
+        <v>0.5456045739872071</v>
       </c>
       <c r="T6">
-        <v>0.08689278291238411</v>
+        <v>0.545604573987207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.925454666666667</v>
+      </c>
+      <c r="H7">
+        <v>17.776364</v>
+      </c>
+      <c r="I7">
+        <v>0.5618720830329801</v>
+      </c>
+      <c r="J7">
+        <v>0.56187208303298</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.980602</v>
+      </c>
+      <c r="O7">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P7">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q7">
+        <v>3.911989121236445</v>
+      </c>
+      <c r="R7">
+        <v>35.207902091128</v>
+      </c>
+      <c r="S7">
+        <v>0.006080000511595887</v>
+      </c>
+      <c r="T7">
+        <v>0.006080000511595886</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H8">
+        <v>1.131775</v>
+      </c>
+      <c r="I8">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J8">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.106217</v>
+      </c>
+      <c r="N8">
+        <v>3.318651</v>
+      </c>
+      <c r="O8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P8">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q8">
+        <v>0.417329581725</v>
+      </c>
+      <c r="R8">
+        <v>3.755966235525</v>
+      </c>
+      <c r="S8">
+        <v>0.0006486122511481126</v>
+      </c>
+      <c r="T8">
+        <v>0.0006486122511481125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H9">
+        <v>1.131775</v>
+      </c>
+      <c r="I9">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J9">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N9">
+        <v>177.734444</v>
+      </c>
+      <c r="O9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P9">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q9">
+        <v>22.35060003978889</v>
+      </c>
+      <c r="R9">
+        <v>201.1554003581</v>
+      </c>
+      <c r="S9">
+        <v>0.03473722841883589</v>
+      </c>
+      <c r="T9">
+        <v>0.03473722841883588</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.3772583333333333</v>
+      </c>
+      <c r="H10">
+        <v>1.131775</v>
+      </c>
+      <c r="I10">
+        <v>0.03577293853651124</v>
+      </c>
+      <c r="J10">
+        <v>0.03577293853651123</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N10">
+        <v>1.980602</v>
+      </c>
+      <c r="O10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P10">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q10">
+        <v>0.2490662031722222</v>
+      </c>
+      <c r="R10">
+        <v>2.24159582855</v>
+      </c>
+      <c r="S10">
+        <v>0.0003870978665272288</v>
+      </c>
+      <c r="T10">
+        <v>0.0003870978665272287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.587637</v>
+      </c>
+      <c r="H11">
+        <v>1.762911</v>
+      </c>
+      <c r="I11">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J11">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.106217</v>
+      </c>
+      <c r="N11">
+        <v>3.318651</v>
+      </c>
+      <c r="O11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P11">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q11">
+        <v>0.650054039229</v>
+      </c>
+      <c r="R11">
+        <v>5.850486353061</v>
+      </c>
+      <c r="S11">
+        <v>0.001010311830782417</v>
+      </c>
+      <c r="T11">
+        <v>0.001010311830782417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.587637</v>
+      </c>
+      <c r="H12">
+        <v>1.762911</v>
+      </c>
+      <c r="I12">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J12">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N12">
+        <v>177.734444</v>
+      </c>
+      <c r="O12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P12">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q12">
+        <v>34.81444515627599</v>
+      </c>
+      <c r="R12">
+        <v>313.330006406484</v>
+      </c>
+      <c r="S12">
+        <v>0.05410849514177147</v>
+      </c>
+      <c r="T12">
+        <v>0.05410849514177146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="H7">
-        <v>0.82841623765369</v>
-      </c>
-      <c r="I7">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="J7">
-        <v>0.08757373259452061</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="N7">
-        <v>0.457933646697285</v>
-      </c>
-      <c r="O7">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="P7">
-        <v>0.00777572979890435</v>
-      </c>
-      <c r="Q7">
-        <v>0.3793596686919989</v>
-      </c>
-      <c r="R7">
-        <v>0.3793596686919989</v>
-      </c>
-      <c r="S7">
-        <v>0.0006809496821364951</v>
-      </c>
-      <c r="T7">
-        <v>0.0006809496821364951</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.587637</v>
+      </c>
+      <c r="H13">
+        <v>1.762911</v>
+      </c>
+      <c r="I13">
+        <v>0.05572177053596303</v>
+      </c>
+      <c r="J13">
+        <v>0.05572177053596302</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.980602</v>
+      </c>
+      <c r="O13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P13">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q13">
+        <v>0.387958339158</v>
+      </c>
+      <c r="R13">
+        <v>3.491625052422</v>
+      </c>
+      <c r="S13">
+        <v>0.0006029635634091434</v>
+      </c>
+      <c r="T13">
+        <v>0.0006029635634091434</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H14">
+        <v>2.672399</v>
+      </c>
+      <c r="I14">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J14">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>1.106217</v>
+      </c>
+      <c r="N14">
+        <v>3.318651</v>
+      </c>
+      <c r="O14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="P14">
+        <v>0.01813136626967656</v>
+      </c>
+      <c r="Q14">
+        <v>0.9854177348610001</v>
+      </c>
+      <c r="R14">
+        <v>8.868759613749001</v>
+      </c>
+      <c r="S14">
+        <v>0.001531532973741217</v>
+      </c>
+      <c r="T14">
+        <v>0.001531532973741216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H15">
+        <v>2.672399</v>
+      </c>
+      <c r="I15">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J15">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>59.24481466666666</v>
+      </c>
+      <c r="N15">
+        <v>177.734444</v>
+      </c>
+      <c r="O15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="P15">
+        <v>0.971047664518299</v>
+      </c>
+      <c r="Q15">
+        <v>52.77526115679511</v>
+      </c>
+      <c r="R15">
+        <v>474.9773504111561</v>
+      </c>
+      <c r="S15">
+        <v>0.082023135772807</v>
+      </c>
+      <c r="T15">
+        <v>0.08202313577280698</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8907996666666668</v>
+      </c>
+      <c r="H16">
+        <v>2.672399</v>
+      </c>
+      <c r="I16">
+        <v>0.08446870196994465</v>
+      </c>
+      <c r="J16">
+        <v>0.08446870196994463</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.6602006666666667</v>
+      </c>
+      <c r="N16">
+        <v>1.980602</v>
+      </c>
+      <c r="O16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="P16">
+        <v>0.01082096921202439</v>
+      </c>
+      <c r="Q16">
+        <v>0.5881065337997778</v>
+      </c>
+      <c r="R16">
+        <v>5.292958804198001</v>
+      </c>
+      <c r="S16">
+        <v>0.0009140332233964346</v>
+      </c>
+      <c r="T16">
+        <v>0.0009140332233964345</v>
       </c>
     </row>
   </sheetData>
